--- a/results.xlsx
+++ b/results.xlsx
@@ -438,13 +438,13 @@
         <v>Quick Sort</v>
       </c>
       <c r="B5" t="str">
-        <v>362</v>
+        <v>467701</v>
       </c>
       <c r="C5" t="str">
         <v>0</v>
       </c>
       <c r="D5" t="str">
-        <v>6.18</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="6">

--- a/results.xlsx
+++ b/results.xlsx
@@ -424,10 +424,10 @@
         <v>Selection Sort</v>
       </c>
       <c r="B4" t="str">
-        <v>119</v>
+        <v>49,999</v>
       </c>
       <c r="C4" t="str">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D4" t="str">
         <v>6.98</v>
@@ -438,7 +438,7 @@
         <v>Quick Sort</v>
       </c>
       <c r="B5" t="str">
-        <v>467701</v>
+        <v>467,701</v>
       </c>
       <c r="C5" t="str">
         <v>0</v>
@@ -452,24 +452,42 @@
         <v>Merge Sort</v>
       </c>
       <c r="B6" t="str">
-        <v>126</v>
+        <v>1,303,395</v>
       </c>
       <c r="C6" t="str">
-        <v>59</v>
+        <v>784,464</v>
       </c>
       <c r="D6" t="str">
-        <v>9.16</v>
+        <v>7.16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
         <v>Heap Sort</v>
       </c>
+      <c r="B7" t="str">
+        <v>1,978,838</v>
+      </c>
+      <c r="C7" t="str">
+        <v>1,366,330</v>
+      </c>
+      <c r="D7" t="str">
+        <v>32.14</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
         <v>Radix Sort</v>
       </c>
+      <c r="B8" t="str">
+        <v>50,000</v>
+      </c>
+      <c r="C8" t="str">
+        <v>600,000</v>
+      </c>
+      <c r="D8" t="str">
+        <v>11</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -489,26 +507,71 @@
       <c r="A11" t="str">
         <v>Insertion Sort</v>
       </c>
+      <c r="B11" t="str">
+        <v>1,250,024,999</v>
+      </c>
+      <c r="C11" t="str">
+        <v>1,250,024,999</v>
+      </c>
+      <c r="D11" t="str">
+        <v>196.94</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
         <v>Selection Sort</v>
       </c>
+      <c r="B12" t="str">
+        <v>49,999</v>
+      </c>
+      <c r="C12" t="str">
+        <v>625,025,000</v>
+      </c>
+      <c r="D12" t="str">
+        <v>1198.34</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
         <v>Quick Sort</v>
       </c>
+      <c r="B13" t="str">
+        <v>965,541</v>
+      </c>
+      <c r="C13" t="str">
+        <v>28,023</v>
+      </c>
+      <c r="D13" t="str">
+        <v>4.88</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
         <v>Merge Sort</v>
       </c>
+      <c r="B14" t="str">
+        <v>1,355,853</v>
+      </c>
+      <c r="C14" t="str">
+        <v>784,464</v>
+      </c>
+      <c r="D14" t="str">
+        <v>6.86</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
         <v>Heap Sort</v>
       </c>
+      <c r="B15" t="str">
+        <v>1,366,047</v>
+      </c>
+      <c r="C15" t="str">
+        <v>698,893</v>
+      </c>
+      <c r="D15" t="str">
+        <v>49.00</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -533,26 +596,71 @@
       <c r="A19" t="str">
         <v>Insertion Sort</v>
       </c>
+      <c r="B19" t="str">
+        <v>324,631,638</v>
+      </c>
+      <c r="C19" t="str">
+        <v>324,597,122</v>
+      </c>
+      <c r="D19" t="str">
+        <v>444.99</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
         <v>Selection Sort</v>
       </c>
+      <c r="B20" t="str">
+        <v>49,999</v>
+      </c>
+      <c r="C20" t="str">
+        <v>400,055</v>
+      </c>
+      <c r="D20" t="str">
+        <v>290.92</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
         <v>Quick Sort</v>
       </c>
+      <c r="B21" t="str">
+        <v>1,115,742</v>
+      </c>
+      <c r="C21" t="str">
+        <v>89,809</v>
+      </c>
+      <c r="D21" t="str">
+        <v>6.45</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
         <v>Merge Sort</v>
       </c>
+      <c r="B22" t="str">
+        <v>1,645,530</v>
+      </c>
+      <c r="C22" t="str">
+        <v>784,464</v>
+      </c>
+      <c r="D22" t="str">
+        <v>7.48</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
         <v>Heap Sort</v>
       </c>
+      <c r="B23" t="str">
+        <v>1,813,823</v>
+      </c>
+      <c r="C23" t="str">
+        <v>1,179,702</v>
+      </c>
+      <c r="D23" t="str">
+        <v>46.59</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
@@ -577,25 +685,70 @@
       <c r="A27" t="str">
         <v>Insertion Sort</v>
       </c>
+      <c r="B27" t="str">
+        <v>621,490,726</v>
+      </c>
+      <c r="C27" t="str">
+        <v>621,490,273</v>
+      </c>
+      <c r="D27" t="str">
+        <v>849.26</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
         <v>Selection Sort</v>
       </c>
+      <c r="B28" t="str">
+        <v>49,999</v>
+      </c>
+      <c r="C28" t="str">
+        <v>258,931</v>
+      </c>
+      <c r="D28" t="str">
+        <v>291.75</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
         <v>Quick Sort</v>
       </c>
+      <c r="B29" t="str">
+        <v>1,120,072</v>
+      </c>
+      <c r="C29" t="str">
+        <v>93,497</v>
+      </c>
+      <c r="D29" t="str">
+        <v>7.80</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
         <v>Merge Sort</v>
       </c>
+      <c r="B30" t="str">
+        <v>2,300,148</v>
+      </c>
+      <c r="C30" t="str">
+        <v>784,464</v>
+      </c>
+      <c r="D30" t="str">
+        <v>10.53</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
         <v>Heap Sort</v>
+      </c>
+      <c r="B31" t="str">
+        <v>1,419,654</v>
+      </c>
+      <c r="C31" t="str">
+        <v>756,351</v>
+      </c>
+      <c r="D31" t="str">
+        <v>33.71</v>
       </c>
     </row>
     <row r="32">

--- a/results.xlsx
+++ b/results.xlsx
@@ -577,6 +577,15 @@
       <c r="A16" t="str">
         <v>Radix Sort</v>
       </c>
+      <c r="B16" t="str">
+        <v>50,000</v>
+      </c>
+      <c r="C16" t="str">
+        <v>700,000</v>
+      </c>
+      <c r="D16" t="str">
+        <v>9.97</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -666,6 +675,15 @@
       <c r="A24" t="str">
         <v>Radix Sort</v>
       </c>
+      <c r="B24" t="str">
+        <v>50,000</v>
+      </c>
+      <c r="C24" t="str">
+        <v>600,000</v>
+      </c>
+      <c r="D24" t="str">
+        <v>8.30</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
@@ -754,6 +772,15 @@
     <row r="32">
       <c r="A32" t="str">
         <v>Radix Sort</v>
+      </c>
+      <c r="B32" t="str">
+        <v>50,000</v>
+      </c>
+      <c r="C32" t="str">
+        <v>300,000</v>
+      </c>
+      <c r="D32" t="str">
+        <v>6.28</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ronya\Desktop\CODE\CS 3345\Project 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989278A6-8D38-4735-81CC-C235B13ABBF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5659965E-1481-4A74-A4D0-49E21E035795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="73">
   <si>
     <t>Experimental Results</t>
   </si>
@@ -123,9 +123,6 @@
   </si>
   <si>
     <t>1,250,024,999</t>
-  </si>
-  <si>
-    <t>196.94</t>
   </si>
   <si>
     <t>625,025,000</t>
@@ -290,8 +287,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -633,7 +633,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -776,8 +778,8 @@
       <c r="C11" t="s">
         <v>29</v>
       </c>
-      <c r="D11" t="s">
-        <v>30</v>
+      <c r="D11" s="1">
+        <v>1196.94</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -788,10 +790,10 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
         <v>31</v>
-      </c>
-      <c r="D12" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -799,13 +801,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
         <v>33</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>34</v>
-      </c>
-      <c r="D13" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -813,13 +815,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
         <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -827,13 +829,13 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s">
         <v>38</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>39</v>
-      </c>
-      <c r="D15" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -844,15 +846,15 @@
         <v>25</v>
       </c>
       <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
         <v>41</v>
-      </c>
-      <c r="D16" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
         <v>4</v>
@@ -869,13 +871,13 @@
         <v>7</v>
       </c>
       <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" t="s">
         <v>44</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>45</v>
-      </c>
-      <c r="D19" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -886,10 +888,10 @@
         <v>8</v>
       </c>
       <c r="C20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" t="s">
         <v>47</v>
-      </c>
-      <c r="D20" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -897,13 +899,13 @@
         <v>13</v>
       </c>
       <c r="B21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" t="s">
         <v>49</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>50</v>
-      </c>
-      <c r="D21" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -911,13 +913,13 @@
         <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C22" t="s">
         <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -925,13 +927,13 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" t="s">
         <v>54</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>55</v>
-      </c>
-      <c r="D23" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -945,12 +947,12 @@
         <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B26" t="s">
         <v>4</v>
@@ -967,13 +969,13 @@
         <v>7</v>
       </c>
       <c r="B27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" t="s">
         <v>59</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>60</v>
-      </c>
-      <c r="D27" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -984,10 +986,10 @@
         <v>8</v>
       </c>
       <c r="C28" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" t="s">
         <v>62</v>
-      </c>
-      <c r="D28" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -995,13 +997,13 @@
         <v>13</v>
       </c>
       <c r="B29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" t="s">
         <v>64</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>65</v>
-      </c>
-      <c r="D29" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1009,13 +1011,13 @@
         <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C30" t="s">
         <v>18</v>
       </c>
       <c r="D30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1023,13 +1025,13 @@
         <v>20</v>
       </c>
       <c r="B31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" t="s">
         <v>69</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>70</v>
-      </c>
-      <c r="D31" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1040,16 +1042,16 @@
         <v>25</v>
       </c>
       <c r="C32" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" t="s">
         <v>72</v>
-      </c>
-      <c r="D32" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:D32" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:D10 A12:D32 A11:C11" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>